--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1333"/>
+  <dimension ref="A1:R1340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1304" t="n">
         <v>4</v>
@@ -94236,7 +94236,7 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -94248,17 +94248,17 @@
         <v>800</v>
       </c>
       <c r="K1304" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1304" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M1304" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1304" t="inlineStr">
@@ -94267,10 +94267,10 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="Q1304" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1304" t="inlineStr">
         <is>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1305" t="n">
         <v>4</v>
@@ -94313,24 +94313,24 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K1305" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1305" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1305" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1305" t="inlineStr">
@@ -94339,10 +94339,10 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q1305" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1305" t="inlineStr">
         <is>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1306" t="n">
         <v>4</v>
@@ -94380,29 +94380,29 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K1306" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L1306" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1306" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1306" t="inlineStr">
@@ -94411,10 +94411,10 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="Q1306" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1306" t="inlineStr">
         <is>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1307" t="n">
         <v>4</v>
@@ -94452,29 +94452,29 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K1307" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1307" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1307" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1307" t="inlineStr">
@@ -94483,10 +94483,10 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q1307" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1307" t="inlineStr">
         <is>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1308" t="n">
         <v>4</v>
@@ -94524,7 +94524,7 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -94533,16 +94533,16 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1308" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1308" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1308" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q1308" t="n">
         <v>15</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1309" t="n">
         <v>4</v>
@@ -94596,7 +94596,7 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
@@ -94605,16 +94605,16 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1309" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L1309" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M1309" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94627,7 +94627,7 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q1309" t="n">
         <v>18</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1310" t="n">
         <v>4</v>
@@ -94668,7 +94668,7 @@
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1310" t="inlineStr">
@@ -94677,20 +94677,20 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>760</v>
+        <v>580</v>
       </c>
       <c r="K1310" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1310" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1310" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1310" t="inlineStr">
@@ -94699,10 +94699,10 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q1310" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1310" t="inlineStr">
         <is>
@@ -94740,29 +94740,29 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1311" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1311" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1311" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1311" t="inlineStr">
@@ -94771,10 +94771,10 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="Q1311" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1311" t="inlineStr">
         <is>
@@ -94812,7 +94812,7 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
@@ -94821,7 +94821,7 @@
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K1312" t="n">
         <v>3500</v>
@@ -94834,7 +94834,7 @@
       </c>
       <c r="N1312" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1312" t="inlineStr">
@@ -94843,10 +94843,10 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="Q1312" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1312" t="inlineStr">
         <is>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1313" t="n">
         <v>4</v>
@@ -94889,24 +94889,24 @@
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K1313" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L1313" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M1313" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1313" t="inlineStr">
@@ -94915,10 +94915,10 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>383</v>
+        <v>153</v>
       </c>
       <c r="Q1313" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1313" t="inlineStr">
         <is>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1314" t="n">
         <v>4</v>
@@ -94956,29 +94956,29 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="K1314" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1314" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1314" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1314" t="inlineStr">
@@ -94987,10 +94987,10 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q1314" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1314" t="inlineStr">
         <is>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1315" t="n">
         <v>4</v>
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="K1315" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1315" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1315" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="Q1315" t="n">
         <v>15</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1316" t="n">
         <v>4</v>
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K1316" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L1316" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1316" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q1316" t="n">
         <v>18</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1317" t="n">
         <v>4</v>
@@ -95181,16 +95181,16 @@
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="K1317" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1317" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1317" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="Q1317" t="n">
         <v>15</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1318" t="n">
         <v>4</v>
@@ -95253,16 +95253,16 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1318" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L1318" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1318" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95275,7 +95275,7 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q1318" t="n">
         <v>18</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1319" t="n">
         <v>4</v>
@@ -95325,16 +95325,16 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="K1319" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1319" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1319" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95347,7 +95347,7 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="Q1319" t="n">
         <v>20</v>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1320" t="n">
         <v>4</v>
@@ -95397,16 +95397,16 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1320" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1320" t="n">
         <v>6000</v>
       </c>
-      <c r="L1320" t="n">
-        <v>6500</v>
-      </c>
       <c r="M1320" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95419,7 +95419,7 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q1320" t="n">
         <v>15</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1321" t="n">
         <v>4</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1322" t="n">
         <v>4</v>
@@ -95541,16 +95541,16 @@
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1322" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1322" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1322" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1322" t="n">
         <v>15</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1323" t="n">
         <v>4</v>
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1323" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1323" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M1323" t="n">
-        <v>4100</v>
+        <v>4750</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1324" t="n">
         <v>4</v>
@@ -95685,16 +95685,16 @@
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K1324" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1324" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1324" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1324" t="n">
         <v>15</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1325" t="n">
         <v>4</v>
@@ -95757,16 +95757,16 @@
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1325" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1325" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M1325" t="n">
-        <v>4100</v>
+        <v>4750</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1326" t="n">
         <v>4</v>
@@ -95829,16 +95829,16 @@
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1326" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1326" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1326" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q1326" t="n">
         <v>20</v>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1327" t="n">
         <v>4</v>
@@ -95901,7 +95901,7 @@
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="K1327" t="n">
         <v>6000</v>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1328" t="n">
         <v>4</v>
@@ -95973,7 +95973,7 @@
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K1328" t="n">
         <v>4500</v>
@@ -96021,7 +96021,7 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1329" t="n">
         <v>4</v>
@@ -96036,7 +96036,7 @@
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
@@ -96045,7 +96045,7 @@
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1329" t="n">
         <v>5000</v>
@@ -96093,7 +96093,7 @@
         </is>
       </c>
       <c r="D1330" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1330" t="n">
         <v>4</v>
@@ -96113,24 +96113,24 @@
       </c>
       <c r="I1330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="K1330" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1330" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M1330" t="n">
-        <v>5250</v>
+        <v>4100</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1330" t="inlineStr">
@@ -96139,10 +96139,10 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>350</v>
+        <v>228</v>
       </c>
       <c r="Q1330" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1330" t="inlineStr">
         <is>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1331" t="n">
         <v>4</v>
@@ -96189,7 +96189,7 @@
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K1331" t="n">
         <v>5000</v>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1332" t="n">
         <v>4</v>
@@ -96261,7 +96261,7 @@
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="K1332" t="n">
         <v>4000</v>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1333" t="n">
         <v>4</v>
@@ -96333,7 +96333,7 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="K1333" t="n">
         <v>5000</v>
@@ -96361,6 +96361,510 @@
         <v>20</v>
       </c>
       <c r="R1333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1334" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1334" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1334" t="n">
+        <v>960</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N1334" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1334" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1334" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1334" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1335" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1335" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N1335" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1335" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1335" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1335" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1336" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1336" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1336" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1336" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1336" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1336" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1336" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1337" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1337" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1337" t="n">
+        <v>880</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1337" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1337" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1337" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1337" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1338" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1338" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1338" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1338" t="n">
+        <v>900</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1338" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1338" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1338" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1338" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1339" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1339" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1339" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1339" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1339" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>4200</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>4100</v>
+      </c>
+      <c r="N1339" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1339" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1339" t="n">
+        <v>228</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1339" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1340" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1340" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1340" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1340" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1340" t="n">
+        <v>840</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1340" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1340" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1340" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1340" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1340"/>
+  <dimension ref="A1:R1347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,20 +87333,20 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="K1208" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1208" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M1208" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
@@ -87355,10 +87355,10 @@
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="Q1208" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -87401,24 +87401,24 @@
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K1209" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1209" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1209" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
@@ -87427,10 +87427,10 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q1209" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -87468,29 +87468,29 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K1210" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L1210" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1210" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1210" t="inlineStr">
@@ -87499,10 +87499,10 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="Q1210" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="K1211" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1211" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1211" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q1211" t="n">
         <v>15</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -87612,29 +87612,29 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>460</v>
+        <v>860</v>
       </c>
       <c r="K1212" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L1212" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1212" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
@@ -87643,10 +87643,10 @@
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="Q1212" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -87689,24 +87689,24 @@
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K1213" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1213" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1213" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1213" t="inlineStr">
@@ -87715,10 +87715,10 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q1213" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1213" t="inlineStr">
         <is>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -87756,29 +87756,29 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="K1214" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L1214" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1214" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1214" t="inlineStr">
@@ -87787,10 +87787,10 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="Q1214" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1214" t="inlineStr">
         <is>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -87837,20 +87837,20 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="K1215" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1215" t="n">
         <v>3500</v>
       </c>
-      <c r="L1215" t="n">
-        <v>4000</v>
-      </c>
       <c r="M1215" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1215" t="inlineStr">
@@ -87859,10 +87859,10 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="Q1215" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1215" t="inlineStr">
         <is>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1216" t="n">
         <v>4</v>
@@ -87909,16 +87909,16 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1216" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1216" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M1216" t="n">
-        <v>7250</v>
+        <v>3750</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87931,7 +87931,7 @@
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>483</v>
+        <v>250</v>
       </c>
       <c r="Q1216" t="n">
         <v>15</v>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1217" t="n">
         <v>4</v>
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="K1217" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L1217" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M1217" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="Q1217" t="n">
         <v>18</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1218" t="n">
         <v>4</v>
@@ -88044,7 +88044,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -88053,16 +88053,16 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1218" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1218" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1218" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q1218" t="n">
         <v>15</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -88116,7 +88116,7 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="K1219" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L1219" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M1219" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q1219" t="n">
         <v>18</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -88188,7 +88188,7 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
@@ -88197,20 +88197,20 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K1220" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1220" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1220" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1220" t="inlineStr">
@@ -88219,10 +88219,10 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q1220" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1220" t="inlineStr">
         <is>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -88260,29 +88260,29 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1221" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L1221" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M1221" t="n">
-        <v>4250</v>
+        <v>2750</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1221" t="inlineStr">
@@ -88291,10 +88291,10 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>425</v>
+        <v>153</v>
       </c>
       <c r="Q1221" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1221" t="inlineStr">
         <is>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -88332,7 +88332,7 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -88341,20 +88341,20 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>860</v>
+        <v>680</v>
       </c>
       <c r="K1222" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1222" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1222" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1222" t="inlineStr">
@@ -88363,10 +88363,10 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>383</v>
+        <v>188</v>
       </c>
       <c r="Q1222" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1222" t="inlineStr">
         <is>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -88409,24 +88409,24 @@
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K1223" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1223" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M1223" t="n">
-        <v>4750</v>
+        <v>7250</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1223" t="inlineStr">
@@ -88435,10 +88435,10 @@
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>264</v>
+        <v>483</v>
       </c>
       <c r="Q1223" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -88476,29 +88476,29 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K1224" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1224" t="n">
         <v>5500</v>
       </c>
-      <c r="L1224" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1224" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1224" t="inlineStr">
@@ -88507,10 +88507,10 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>383</v>
+        <v>292</v>
       </c>
       <c r="Q1224" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1224" t="inlineStr">
         <is>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -88548,7 +88548,7 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
@@ -88557,16 +88557,16 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="K1225" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1225" t="n">
         <v>5500</v>
       </c>
-      <c r="L1225" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1225" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88579,7 +88579,7 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q1225" t="n">
         <v>15</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -88620,7 +88620,7 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
@@ -88629,16 +88629,16 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K1226" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1226" t="n">
         <v>4500</v>
       </c>
-      <c r="L1226" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1226" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q1226" t="n">
         <v>18</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -88692,7 +88692,7 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -88701,20 +88701,20 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>860</v>
+        <v>700</v>
       </c>
       <c r="K1227" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1227" t="n">
         <v>5500</v>
       </c>
-      <c r="L1227" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1227" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1227" t="inlineStr">
@@ -88723,10 +88723,10 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="Q1227" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1227" t="inlineStr">
         <is>
@@ -88764,29 +88764,29 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K1228" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1228" t="n">
         <v>4500</v>
       </c>
-      <c r="L1228" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1228" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1228" t="inlineStr">
@@ -88795,10 +88795,10 @@
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>264</v>
+        <v>425</v>
       </c>
       <c r="Q1228" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1228" t="inlineStr">
         <is>
@@ -88836,7 +88836,7 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
@@ -88845,7 +88845,7 @@
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="K1229" t="n">
         <v>5500</v>
@@ -88858,7 +88858,7 @@
       </c>
       <c r="N1229" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1229" t="inlineStr">
@@ -88867,10 +88867,10 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q1229" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1229" t="inlineStr">
         <is>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1230" t="n">
         <v>4</v>
@@ -88913,24 +88913,24 @@
       </c>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="K1230" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L1230" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1230" t="n">
-        <v>7750</v>
+        <v>4750</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
@@ -88939,10 +88939,10 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>517</v>
+        <v>264</v>
       </c>
       <c r="Q1230" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1231" t="n">
         <v>4</v>
@@ -88980,16 +88980,16 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K1231" t="n">
         <v>5500</v>
@@ -89002,7 +89002,7 @@
       </c>
       <c r="N1231" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1231" t="inlineStr">
@@ -89011,10 +89011,10 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="Q1231" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1231" t="inlineStr">
         <is>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1232" t="n">
         <v>4</v>
@@ -89052,7 +89052,7 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -89061,7 +89061,7 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="K1232" t="n">
         <v>5500</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1233" t="n">
         <v>4</v>
@@ -89129,24 +89129,24 @@
       </c>
       <c r="I1233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K1233" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1233" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1233" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1233" t="inlineStr">
@@ -89155,10 +89155,10 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="Q1233" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1233" t="inlineStr">
         <is>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1234" t="n">
         <v>4</v>
@@ -89205,7 +89205,7 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="K1234" t="n">
         <v>5500</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1235" t="n">
         <v>4</v>
@@ -89277,7 +89277,7 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K1235" t="n">
         <v>4500</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1236" t="n">
         <v>4</v>
@@ -89349,7 +89349,7 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="K1236" t="n">
         <v>5500</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1237" t="n">
         <v>4</v>
@@ -89424,13 +89424,13 @@
         <v>1000</v>
       </c>
       <c r="K1237" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1237" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M1237" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="Q1237" t="n">
         <v>15</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1238" t="n">
         <v>4</v>
@@ -89493,16 +89493,16 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="K1238" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1238" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1238" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="Q1238" t="n">
         <v>18</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1239" t="n">
         <v>4</v>
@@ -89568,13 +89568,13 @@
         <v>800</v>
       </c>
       <c r="K1239" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1239" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1239" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1239" t="n">
         <v>15</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1240" t="n">
         <v>4</v>
@@ -89637,16 +89637,16 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="K1240" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1240" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1240" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1240" t="n">
         <v>15</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1241" t="n">
         <v>4</v>
@@ -89712,13 +89712,13 @@
         <v>900</v>
       </c>
       <c r="K1241" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1241" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1241" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1241" t="n">
         <v>15</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1242" t="n">
         <v>4</v>
@@ -89784,13 +89784,13 @@
         <v>560</v>
       </c>
       <c r="K1242" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1242" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1242" t="n">
-        <v>4250</v>
+        <v>4750</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q1242" t="n">
         <v>18</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1243" t="n">
         <v>4</v>
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="K1243" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1243" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1243" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q1243" t="n">
         <v>20</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1244" t="n">
         <v>4</v>
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>4420</v>
+        <v>1000</v>
       </c>
       <c r="K1244" t="n">
         <v>7000</v>
       </c>
       <c r="L1244" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M1244" t="n">
-        <v>7546</v>
+        <v>7250</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="Q1244" t="n">
         <v>15</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1245" t="n">
         <v>4</v>
@@ -89997,16 +89997,16 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>2560</v>
+        <v>560</v>
       </c>
       <c r="K1245" t="n">
         <v>5000</v>
       </c>
       <c r="L1245" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1245" t="n">
-        <v>5879</v>
+        <v>5250</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="Q1245" t="n">
         <v>18</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1246" t="n">
         <v>4</v>
@@ -90069,16 +90069,16 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>2260</v>
+        <v>800</v>
       </c>
       <c r="K1246" t="n">
         <v>5000</v>
       </c>
       <c r="L1246" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1246" t="n">
-        <v>5573</v>
+        <v>5250</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="Q1246" t="n">
         <v>15</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1247" t="n">
         <v>4</v>
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>2340</v>
+        <v>880</v>
       </c>
       <c r="K1247" t="n">
         <v>5000</v>
       </c>
       <c r="L1247" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1247" t="n">
-        <v>5429</v>
+        <v>5250</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q1247" t="n">
         <v>15</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1248" t="n">
         <v>4</v>
@@ -90204,29 +90204,29 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1248" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1248" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1248" t="n">
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1248" t="inlineStr">
@@ -90235,10 +90235,10 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="Q1248" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1248" t="inlineStr">
         <is>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1249" t="n">
         <v>4</v>
@@ -90281,24 +90281,24 @@
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>3100</v>
+        <v>560</v>
       </c>
       <c r="K1249" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1249" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1249" t="n">
-        <v>5508</v>
+        <v>4250</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1249" t="inlineStr">
@@ -90307,10 +90307,10 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>367</v>
+        <v>236</v>
       </c>
       <c r="Q1249" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1249" t="inlineStr">
         <is>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1250" t="n">
         <v>4</v>
@@ -90348,29 +90348,29 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>1460</v>
+        <v>880</v>
       </c>
       <c r="K1250" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1250" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1250" t="n">
-        <v>4421</v>
+        <v>5250</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
@@ -90379,10 +90379,10 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="Q1250" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90420,7 +90420,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -90429,20 +90429,20 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>3120</v>
+        <v>4420</v>
       </c>
       <c r="K1251" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1251" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1251" t="n">
-        <v>5516</v>
+        <v>7546</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1251" t="inlineStr">
@@ -90451,10 +90451,10 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>276</v>
+        <v>503</v>
       </c>
       <c r="Q1251" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1251" t="inlineStr">
         <is>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1252" t="n">
         <v>4</v>
@@ -90497,24 +90497,24 @@
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>800</v>
+        <v>2560</v>
       </c>
       <c r="K1252" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1252" t="n">
         <v>7000</v>
       </c>
       <c r="M1252" t="n">
-        <v>6750</v>
+        <v>5879</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1252" t="inlineStr">
@@ -90523,10 +90523,10 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>450</v>
+        <v>327</v>
       </c>
       <c r="Q1252" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1252" t="inlineStr">
         <is>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1253" t="n">
         <v>4</v>
@@ -90564,29 +90564,29 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>560</v>
+        <v>2260</v>
       </c>
       <c r="K1253" t="n">
         <v>5000</v>
       </c>
       <c r="L1253" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1253" t="n">
-        <v>5250</v>
+        <v>5573</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
@@ -90595,10 +90595,10 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="Q1253" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1254" t="n">
         <v>4</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>800</v>
+        <v>2340</v>
       </c>
       <c r="K1254" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1254" t="n">
         <v>6000</v>
       </c>
       <c r="M1254" t="n">
-        <v>5750</v>
+        <v>5429</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="Q1254" t="n">
         <v>15</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1255" t="n">
         <v>4</v>
@@ -90708,7 +90708,7 @@
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K1255" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="L1255" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1255" t="n">
-        <v>4900</v>
+        <v>4250</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="Q1255" t="n">
         <v>18</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1256" t="n">
         <v>4</v>
@@ -90780,7 +90780,7 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -90789,20 +90789,20 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="K1256" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1256" t="n">
         <v>6000</v>
       </c>
       <c r="M1256" t="n">
-        <v>5750</v>
+        <v>5508</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1256" t="inlineStr">
@@ -90811,10 +90811,10 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="Q1256" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1256" t="inlineStr">
         <is>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E1257" t="n">
         <v>4</v>
@@ -90852,29 +90852,29 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>640</v>
+        <v>1460</v>
       </c>
       <c r="K1257" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1257" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M1257" t="n">
-        <v>3250</v>
+        <v>4421</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1257" t="inlineStr">
@@ -90883,10 +90883,10 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="Q1257" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1257" t="inlineStr">
         <is>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E1258" t="n">
         <v>4</v>
@@ -90924,7 +90924,7 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
@@ -90933,20 +90933,20 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>600</v>
+        <v>3120</v>
       </c>
       <c r="K1258" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1258" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1258" t="n">
-        <v>3750</v>
+        <v>5516</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
@@ -90955,10 +90955,10 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Q1258" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1258" t="inlineStr">
         <is>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1259" t="n">
         <v>4</v>
@@ -91001,24 +91001,24 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="K1259" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L1259" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1259" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1259" t="inlineStr">
@@ -91027,10 +91027,10 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>153</v>
+        <v>450</v>
       </c>
       <c r="Q1259" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1259" t="inlineStr">
         <is>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1260" t="n">
         <v>4</v>
@@ -91068,29 +91068,29 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K1260" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1260" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1260" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1260" t="inlineStr">
@@ -91099,10 +91099,10 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q1260" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1260" t="inlineStr">
         <is>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1261" t="n">
         <v>4</v>
@@ -91140,29 +91140,29 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="K1261" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L1261" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1261" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1261" t="inlineStr">
@@ -91171,10 +91171,10 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>153</v>
+        <v>383</v>
       </c>
       <c r="Q1261" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1261" t="inlineStr">
         <is>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1262" t="n">
         <v>4</v>
@@ -91217,24 +91217,24 @@
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K1262" t="n">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="L1262" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1262" t="n">
-        <v>3750</v>
+        <v>4900</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1262" t="inlineStr">
@@ -91243,10 +91243,10 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="Q1262" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1262" t="inlineStr">
         <is>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1263" t="n">
         <v>4</v>
@@ -91284,29 +91284,29 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1263" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L1263" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1263" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1263" t="inlineStr">
@@ -91315,10 +91315,10 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="Q1263" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1263" t="inlineStr">
         <is>
@@ -91356,7 +91356,7 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -91365,20 +91365,20 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K1264" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1264" t="n">
         <v>3500</v>
       </c>
-      <c r="L1264" t="n">
-        <v>4000</v>
-      </c>
       <c r="M1264" t="n">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1264" t="inlineStr">
@@ -91387,10 +91387,10 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="Q1264" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1264" t="inlineStr">
         <is>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1265" t="n">
         <v>4</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91437,20 +91437,20 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1265" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1265" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1265" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1265" t="inlineStr">
@@ -91459,10 +91459,10 @@
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>525</v>
+        <v>250</v>
       </c>
       <c r="Q1265" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1265" t="inlineStr">
         <is>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1266" t="n">
         <v>4</v>
@@ -91505,24 +91505,24 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K1266" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L1266" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1266" t="n">
-        <v>6750</v>
+        <v>2750</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1266" t="inlineStr">
@@ -91531,10 +91531,10 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>450</v>
+        <v>153</v>
       </c>
       <c r="Q1266" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1266" t="inlineStr">
         <is>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1267" t="n">
         <v>4</v>
@@ -91572,29 +91572,29 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K1267" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1267" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1267" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1267" t="inlineStr">
@@ -91603,10 +91603,10 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q1267" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1267" t="inlineStr">
         <is>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1268" t="n">
         <v>4</v>
@@ -91644,29 +91644,29 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>640</v>
+        <v>460</v>
       </c>
       <c r="K1268" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L1268" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M1268" t="n">
-        <v>5250</v>
+        <v>2750</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1268" t="inlineStr">
@@ -91675,10 +91675,10 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>350</v>
+        <v>153</v>
       </c>
       <c r="Q1268" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1268" t="inlineStr">
         <is>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1269" t="n">
         <v>4</v>
@@ -91716,7 +91716,7 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -91725,16 +91725,16 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K1269" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1269" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1269" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q1269" t="n">
         <v>15</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1270" t="n">
         <v>4</v>
@@ -91788,7 +91788,7 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
@@ -91800,13 +91800,13 @@
         <v>400</v>
       </c>
       <c r="K1270" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L1270" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="M1270" t="n">
-        <v>4100</v>
+        <v>2750</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91819,7 +91819,7 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="Q1270" t="n">
         <v>18</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E1271" t="n">
         <v>4</v>
@@ -91860,7 +91860,7 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
@@ -91869,20 +91869,20 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1271" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1271" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1271" t="n">
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1271" t="inlineStr">
@@ -91891,10 +91891,10 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="Q1271" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1271" t="inlineStr">
         <is>
@@ -91932,29 +91932,29 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1272" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1272" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="M1272" t="n">
-        <v>4100</v>
+        <v>5250</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1272" t="inlineStr">
@@ -91963,10 +91963,10 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>228</v>
+        <v>525</v>
       </c>
       <c r="Q1272" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1272" t="inlineStr">
         <is>
@@ -92004,7 +92004,7 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -92013,20 +92013,20 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1273" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1273" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1273" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1273" t="inlineStr">
@@ -92035,10 +92035,10 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="Q1273" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1273" t="inlineStr">
         <is>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1274" t="n">
         <v>4</v>
@@ -92081,24 +92081,24 @@
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K1274" t="n">
-        <v>6800</v>
+        <v>4500</v>
       </c>
       <c r="L1274" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1274" t="n">
-        <v>6900</v>
+        <v>4750</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1274" t="inlineStr">
@@ -92107,10 +92107,10 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>460</v>
+        <v>264</v>
       </c>
       <c r="Q1274" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1274" t="inlineStr">
         <is>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1275" t="n">
         <v>4</v>
@@ -92148,29 +92148,29 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="K1275" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L1275" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1275" t="n">
-        <v>5900</v>
+        <v>5250</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1275" t="inlineStr">
@@ -92179,10 +92179,10 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="Q1275" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1275" t="inlineStr">
         <is>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1276" t="n">
         <v>4</v>
@@ -92220,7 +92220,7 @@
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
@@ -92229,16 +92229,16 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>840</v>
+        <v>660</v>
       </c>
       <c r="K1276" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1276" t="n">
         <v>5500</v>
       </c>
-      <c r="L1276" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1276" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92251,7 +92251,7 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q1276" t="n">
         <v>15</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1277" t="n">
         <v>4</v>
@@ -92297,24 +92297,24 @@
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1277" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1277" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="M1277" t="n">
-        <v>5750</v>
+        <v>4100</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1277" t="inlineStr">
@@ -92323,10 +92323,10 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>383</v>
+        <v>228</v>
       </c>
       <c r="Q1277" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1277" t="inlineStr">
         <is>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1278" t="n">
         <v>4</v>
@@ -92364,29 +92364,29 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="K1278" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1278" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1278" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1278" t="inlineStr">
@@ -92395,10 +92395,10 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="Q1278" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1278" t="inlineStr">
         <is>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1279" t="n">
         <v>4</v>
@@ -92441,24 +92441,24 @@
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="K1279" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1279" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="M1279" t="n">
-        <v>5750</v>
+        <v>4100</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1279" t="inlineStr">
@@ -92467,10 +92467,10 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>383</v>
+        <v>228</v>
       </c>
       <c r="Q1279" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1279" t="inlineStr">
         <is>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E1280" t="n">
         <v>4</v>
@@ -92508,29 +92508,29 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K1280" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1280" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1280" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1280" t="inlineStr">
@@ -92539,10 +92539,10 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q1280" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1280" t="inlineStr">
         <is>
@@ -92580,7 +92580,7 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
@@ -92589,20 +92589,20 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="K1281" t="n">
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="L1281" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1281" t="n">
-        <v>5750</v>
+        <v>6900</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1281" t="inlineStr">
@@ -92611,10 +92611,10 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>288</v>
+        <v>460</v>
       </c>
       <c r="Q1281" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1281" t="inlineStr">
         <is>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1282" t="n">
         <v>4</v>
@@ -92652,29 +92652,29 @@
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K1282" t="n">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="L1282" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1282" t="n">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1282" t="inlineStr">
@@ -92683,10 +92683,10 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>540</v>
+        <v>328</v>
       </c>
       <c r="Q1282" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1282" t="inlineStr">
         <is>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1283" t="n">
         <v>4</v>
@@ -92724,7 +92724,7 @@
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
@@ -92733,16 +92733,16 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="K1283" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L1283" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1283" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="Q1283" t="n">
         <v>15</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1284" t="n">
         <v>4</v>
@@ -92796,29 +92796,29 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1284" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1284" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1284" t="inlineStr">
@@ -92827,10 +92827,10 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q1284" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1284" t="inlineStr">
         <is>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1285" t="n">
         <v>4</v>
@@ -92868,29 +92868,29 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K1285" t="n">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="L1285" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1285" t="n">
-        <v>5400</v>
+        <v>4750</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1285" t="inlineStr">
@@ -92899,10 +92899,10 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="Q1285" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1285" t="inlineStr">
         <is>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1286" t="n">
         <v>4</v>
@@ -92940,7 +92940,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -92949,16 +92949,16 @@
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="K1286" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L1286" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1286" t="n">
-        <v>5400</v>
+        <v>5750</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="Q1286" t="n">
         <v>15</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1287" t="n">
         <v>4</v>
@@ -93017,24 +93017,24 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="K1287" t="n">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="L1287" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1287" t="n">
-        <v>5400</v>
+        <v>4750</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1287" t="inlineStr">
@@ -93043,10 +93043,10 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="Q1287" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1287" t="inlineStr">
         <is>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E1288" t="n">
         <v>4</v>
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="K1288" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="L1288" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1288" t="n">
-        <v>5400</v>
+        <v>5750</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="Q1288" t="n">
         <v>20</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1289" t="n">
         <v>4</v>
@@ -93165,16 +93165,16 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1289" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="L1289" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1289" t="n">
-        <v>4250</v>
+        <v>5400</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>425</v>
+        <v>540</v>
       </c>
       <c r="Q1289" t="n">
         <v>10</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1290" t="n">
         <v>4</v>
@@ -93240,13 +93240,13 @@
         <v>800</v>
       </c>
       <c r="K1290" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1290" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1290" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93259,7 +93259,7 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>383</v>
+        <v>517</v>
       </c>
       <c r="Q1290" t="n">
         <v>15</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1291" t="n">
         <v>4</v>
@@ -93309,16 +93309,16 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K1291" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="L1291" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1291" t="n">
-        <v>4900</v>
+        <v>6750</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93331,7 +93331,7 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="Q1291" t="n">
         <v>18</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1292" t="n">
         <v>4</v>
@@ -93381,16 +93381,16 @@
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K1292" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="L1292" t="n">
         <v>5500</v>
       </c>
       <c r="M1292" t="n">
-        <v>5250</v>
+        <v>5400</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93403,7 +93403,7 @@
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q1292" t="n">
         <v>15</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1293" t="n">
         <v>4</v>
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="K1293" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="L1293" t="n">
         <v>5500</v>
       </c>
       <c r="M1293" t="n">
-        <v>5250</v>
+        <v>5400</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q1293" t="n">
         <v>15</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1294" t="n">
         <v>4</v>
@@ -93516,29 +93516,29 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K1294" t="n">
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="L1294" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1294" t="n">
-        <v>4400</v>
+        <v>5400</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1294" t="inlineStr">
@@ -93547,10 +93547,10 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="Q1294" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1294" t="inlineStr">
         <is>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E1295" t="n">
         <v>4</v>
@@ -93588,7 +93588,7 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
@@ -93597,20 +93597,20 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="K1295" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="L1295" t="n">
         <v>5500</v>
       </c>
       <c r="M1295" t="n">
-        <v>5250</v>
+        <v>5400</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1295" t="inlineStr">
@@ -93619,10 +93619,10 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q1295" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1295" t="inlineStr">
         <is>
@@ -93660,29 +93660,29 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="K1296" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L1296" t="n">
         <v>4500</v>
       </c>
       <c r="M1296" t="n">
-        <v>4400</v>
+        <v>4250</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1296" t="inlineStr">
@@ -93691,10 +93691,10 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>244</v>
+        <v>425</v>
       </c>
       <c r="Q1296" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1296" t="inlineStr">
         <is>
@@ -93732,7 +93732,7 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -93741,20 +93741,20 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="K1297" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1297" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1297" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1297" t="inlineStr">
@@ -93763,10 +93763,10 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="Q1297" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1297" t="inlineStr">
         <is>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1298" t="n">
         <v>4</v>
@@ -93809,24 +93809,24 @@
       </c>
       <c r="I1298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>960</v>
+        <v>540</v>
       </c>
       <c r="K1298" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="L1298" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1298" t="n">
-        <v>6750</v>
+        <v>4900</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1298" t="inlineStr">
@@ -93835,10 +93835,10 @@
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="Q1298" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1298" t="inlineStr">
         <is>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1299" t="n">
         <v>4</v>
@@ -93876,16 +93876,16 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>540</v>
+        <v>760</v>
       </c>
       <c r="K1299" t="n">
         <v>5000</v>
@@ -93898,7 +93898,7 @@
       </c>
       <c r="N1299" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1299" t="inlineStr">
@@ -93907,10 +93907,10 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="Q1299" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1299" t="inlineStr">
         <is>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1300" t="n">
         <v>4</v>
@@ -93948,7 +93948,7 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
@@ -93957,16 +93957,16 @@
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K1300" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1300" t="n">
         <v>5500</v>
       </c>
-      <c r="L1300" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1300" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q1300" t="n">
         <v>15</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1301" t="n">
         <v>4</v>
@@ -94025,24 +94025,24 @@
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K1301" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="L1301" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1301" t="n">
-        <v>5750</v>
+        <v>4400</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1301" t="inlineStr">
@@ -94051,10 +94051,10 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="Q1301" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1301" t="inlineStr">
         <is>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1302" t="n">
         <v>4</v>
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K1302" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1302" t="n">
         <v>5500</v>
       </c>
-      <c r="L1302" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1302" t="n">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94123,7 +94123,7 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q1302" t="n">
         <v>15</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E1303" t="n">
         <v>4</v>
@@ -94164,29 +94164,29 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>850</v>
+        <v>520</v>
       </c>
       <c r="K1303" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="L1303" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1303" t="n">
-        <v>5750</v>
+        <v>4400</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1303" t="inlineStr">
@@ -94195,10 +94195,10 @@
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="Q1303" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1303" t="inlineStr">
         <is>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E1304" t="n">
         <v>4</v>
@@ -94236,7 +94236,7 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -94245,20 +94245,20 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="K1304" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1304" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1304" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1304" t="inlineStr">
@@ -94267,10 +94267,10 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q1304" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1304" t="inlineStr">
         <is>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1305" t="n">
         <v>4</v>
@@ -94313,24 +94313,24 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>440</v>
+        <v>960</v>
       </c>
       <c r="K1305" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1305" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1305" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1305" t="inlineStr">
@@ -94339,10 +94339,10 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="Q1305" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1305" t="inlineStr">
         <is>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1306" t="n">
         <v>4</v>
@@ -94380,16 +94380,16 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K1306" t="n">
         <v>5000</v>
@@ -94402,7 +94402,7 @@
       </c>
       <c r="N1306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1306" t="inlineStr">
@@ -94411,10 +94411,10 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="Q1306" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1306" t="inlineStr">
         <is>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1307" t="n">
         <v>4</v>
@@ -94452,29 +94452,29 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1307" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1307" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1307" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1307" t="inlineStr">
@@ -94483,10 +94483,10 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="Q1307" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1307" t="inlineStr">
         <is>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1308" t="n">
         <v>4</v>
@@ -94524,7 +94524,7 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -94533,16 +94533,16 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1308" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1308" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1308" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1308" t="n">
         <v>15</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1309" t="n">
         <v>4</v>
@@ -94601,24 +94601,24 @@
       </c>
       <c r="I1309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K1309" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1309" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1309" t="n">
-        <v>4250</v>
+        <v>5750</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1309" t="inlineStr">
@@ -94627,10 +94627,10 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="Q1309" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1309" t="inlineStr">
         <is>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1310" t="n">
         <v>4</v>
@@ -94677,16 +94677,16 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="K1310" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1310" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1310" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94699,7 +94699,7 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q1310" t="n">
         <v>20</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1311" t="n">
         <v>4</v>
@@ -94740,7 +94740,7 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -94752,17 +94752,17 @@
         <v>800</v>
       </c>
       <c r="K1311" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1311" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M1311" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1311" t="inlineStr">
@@ -94771,10 +94771,10 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="Q1311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1311" t="inlineStr">
         <is>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1312" t="n">
         <v>4</v>
@@ -94817,24 +94817,24 @@
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="K1312" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1312" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1312" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1312" t="inlineStr">
@@ -94843,10 +94843,10 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q1312" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1312" t="inlineStr">
         <is>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1313" t="n">
         <v>4</v>
@@ -94884,29 +94884,29 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K1313" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L1313" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1313" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1313" t="inlineStr">
@@ -94915,10 +94915,10 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="Q1313" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1313" t="inlineStr">
         <is>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1314" t="n">
         <v>4</v>
@@ -94956,29 +94956,29 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>740</v>
+        <v>400</v>
       </c>
       <c r="K1314" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1314" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1314" t="n">
-        <v>3750</v>
+        <v>4250</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1314" t="inlineStr">
@@ -94987,10 +94987,10 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q1314" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1314" t="inlineStr">
         <is>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1315" t="n">
         <v>4</v>
@@ -95028,7 +95028,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="K1315" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1315" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1315" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q1315" t="n">
         <v>15</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1316" t="n">
         <v>4</v>
@@ -95100,7 +95100,7 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K1316" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L1316" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M1316" t="n">
-        <v>2750</v>
+        <v>4250</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q1316" t="n">
         <v>18</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1317" t="n">
         <v>4</v>
@@ -95172,7 +95172,7 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -95181,20 +95181,20 @@
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>760</v>
+        <v>580</v>
       </c>
       <c r="K1317" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1317" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1317" t="n">
-        <v>3750</v>
+        <v>5250</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1317" t="inlineStr">
@@ -95203,10 +95203,10 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q1317" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1317" t="inlineStr">
         <is>
@@ -95244,29 +95244,29 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1318" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1318" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1318" t="n">
-        <v>2750</v>
+        <v>3250</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1318" t="inlineStr">
@@ -95275,10 +95275,10 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="Q1318" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1318" t="inlineStr">
         <is>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -95325,7 +95325,7 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K1319" t="n">
         <v>3500</v>
@@ -95338,7 +95338,7 @@
       </c>
       <c r="N1319" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1319" t="inlineStr">
@@ -95347,10 +95347,10 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="Q1319" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1319" t="inlineStr">
         <is>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1320" t="n">
         <v>4</v>
@@ -95393,24 +95393,24 @@
       </c>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="K1320" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="L1320" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M1320" t="n">
-        <v>5750</v>
+        <v>2750</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1320" t="inlineStr">
@@ -95419,10 +95419,10 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>383</v>
+        <v>153</v>
       </c>
       <c r="Q1320" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1320" t="inlineStr">
         <is>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1321" t="n">
         <v>4</v>
@@ -95460,29 +95460,29 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="K1321" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1321" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1321" t="n">
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1321" t="inlineStr">
@@ -95491,10 +95491,10 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q1321" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1321" t="inlineStr">
         <is>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1322" t="n">
         <v>4</v>
@@ -95541,16 +95541,16 @@
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="K1322" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1322" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="Q1322" t="n">
         <v>15</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1323" t="n">
         <v>4</v>
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K1323" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L1323" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1323" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1324" t="n">
         <v>4</v>
@@ -95685,16 +95685,16 @@
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="K1324" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1324" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1324" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="Q1324" t="n">
         <v>15</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1325" t="n">
         <v>4</v>
@@ -95757,16 +95757,16 @@
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1325" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L1325" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1325" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1326" t="n">
         <v>4</v>
@@ -95829,16 +95829,16 @@
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="K1326" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L1326" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1326" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="Q1326" t="n">
         <v>20</v>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1327" t="n">
         <v>4</v>
@@ -95901,16 +95901,16 @@
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1327" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1327" t="n">
         <v>6000</v>
       </c>
-      <c r="L1327" t="n">
-        <v>6500</v>
-      </c>
       <c r="M1327" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q1327" t="n">
         <v>15</v>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1328" t="n">
         <v>4</v>
@@ -96021,7 +96021,7 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1329" t="n">
         <v>4</v>
@@ -96045,16 +96045,16 @@
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1329" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1329" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1329" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96067,7 +96067,7 @@
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1329" t="n">
         <v>15</v>
@@ -96093,7 +96093,7 @@
         </is>
       </c>
       <c r="D1330" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1330" t="n">
         <v>4</v>
@@ -96117,16 +96117,16 @@
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K1330" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1330" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M1330" t="n">
-        <v>4100</v>
+        <v>4750</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="Q1330" t="n">
         <v>18</v>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1331" t="n">
         <v>4</v>
@@ -96189,16 +96189,16 @@
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="K1331" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1331" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1331" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
@@ -96211,7 +96211,7 @@
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q1331" t="n">
         <v>15</v>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1332" t="n">
         <v>4</v>
@@ -96261,16 +96261,16 @@
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="K1332" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1332" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="M1332" t="n">
-        <v>4100</v>
+        <v>4750</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
@@ -96283,7 +96283,7 @@
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="Q1332" t="n">
         <v>18</v>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1333" t="n">
         <v>4</v>
@@ -96333,16 +96333,16 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="K1333" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1333" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1333" t="n">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96355,7 +96355,7 @@
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q1333" t="n">
         <v>20</v>
@@ -96381,7 +96381,7 @@
         </is>
       </c>
       <c r="D1334" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1334" t="n">
         <v>4</v>
@@ -96405,7 +96405,7 @@
         </is>
       </c>
       <c r="J1334" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="K1334" t="n">
         <v>6000</v>
@@ -96453,7 +96453,7 @@
         </is>
       </c>
       <c r="D1335" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1335" t="n">
         <v>4</v>
@@ -96477,7 +96477,7 @@
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="K1335" t="n">
         <v>4500</v>
@@ -96525,7 +96525,7 @@
         </is>
       </c>
       <c r="D1336" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1336" t="n">
         <v>4</v>
@@ -96540,7 +96540,7 @@
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1336" t="inlineStr">
@@ -96549,7 +96549,7 @@
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1336" t="n">
         <v>5000</v>
@@ -96597,7 +96597,7 @@
         </is>
       </c>
       <c r="D1337" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1337" t="n">
         <v>4</v>
@@ -96617,24 +96617,24 @@
       </c>
       <c r="I1337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="K1337" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1337" t="n">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="M1337" t="n">
-        <v>5250</v>
+        <v>4100</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1337" t="inlineStr">
@@ -96643,10 +96643,10 @@
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>350</v>
+        <v>228</v>
       </c>
       <c r="Q1337" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1337" t="inlineStr">
         <is>
@@ -96669,7 +96669,7 @@
         </is>
       </c>
       <c r="D1338" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1338" t="n">
         <v>4</v>
@@ -96693,7 +96693,7 @@
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K1338" t="n">
         <v>5000</v>
@@ -96741,7 +96741,7 @@
         </is>
       </c>
       <c r="D1339" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1339" t="n">
         <v>4</v>
@@ -96765,7 +96765,7 @@
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="K1339" t="n">
         <v>4000</v>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1340" t="n">
         <v>4</v>
@@ -96837,7 +96837,7 @@
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="K1340" t="n">
         <v>5000</v>
@@ -96865,6 +96865,510 @@
         <v>20</v>
       </c>
       <c r="R1340" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1341" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1341" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1341" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1341" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1341" t="n">
+        <v>960</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N1341" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1341" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1341" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1341" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1342" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1342" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1342" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N1342" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1342" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1342" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1342" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1343" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1343" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1343" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1343" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1343" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1343" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1343" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1343" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1343" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1344" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1344" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1344" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1344" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1344" t="n">
+        <v>880</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1344" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1344" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1344" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1344" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1345" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1345" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1345" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1345" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1345" t="n">
+        <v>900</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1345" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1345" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1345" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1345" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1346" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1346" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1346" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1346" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1346" t="n">
+        <v>540</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>4200</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>4100</v>
+      </c>
+      <c r="N1346" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1346" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1346" t="n">
+        <v>228</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1346" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1347" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1347" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1347" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1347" t="n">
+        <v>840</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>5250</v>
+      </c>
+      <c r="N1347" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1347" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1347" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1347" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
